--- a/Excel/Language_多语言表.xlsx
+++ b/Excel/Language_多语言表.xlsx
@@ -66,10 +66,10 @@
     <t>test_01</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Test\nline2</t>
   </si>
   <si>
-    <t>测试</t>
+    <t>测试\nline2</t>
   </si>
 </sst>
 </file>
@@ -219,27 +219,22 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="微软雅黑"/>
     </font>
     <font>
       <sz val="9.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9.000000"/>
-      <color indexed="64"/>
       <name val="微软雅黑"/>
     </font>
     <font>
       <sz val="9.750000"/>
-      <color indexed="64"/>
       <name val="微软雅黑"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -846,13 +841,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="double">
           <color theme="4"/>
         </top>
-        <bottom/>
-        <diagonal/>
+        <bottom style="none"/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -872,7 +867,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </horizontal>
@@ -899,13 +894,13 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -914,15 +909,15 @@
         <color theme="1"/>
       </font>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4"/>
         </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -937,13 +932,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -957,13 +952,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -974,13 +969,13 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
-        <top/>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -1006,15 +1001,15 @@
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
+        <left style="none"/>
+        <right style="none"/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241899"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -1635,7 +1630,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -4915,7 +4912,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="5" id="{004A007A-003D-4D62-84AE-00DD00B00058}">
+          <x14:cfRule type="duplicateValues" priority="5" id="{00C60013-00B4-4442-BADA-00E60001007E}">
             <x14:dxf>
               <font>
                 <b val="0"/>
@@ -4926,17 +4923,14 @@
                 <scheme val="none"/>
               </font>
               <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="64"/>
-                  <bgColor indexed="64"/>
-                </patternFill>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D543:D549 C544:C549</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="4" id="{00A70049-009A-46E2-A996-00ED00990074}">
+          <x14:cfRule type="duplicateValues" priority="4" id="{000B00A2-0077-44BE-93B9-00FD00AE006B}">
             <x14:dxf>
               <font>
                 <b val="0"/>
@@ -4947,17 +4941,14 @@
                 <scheme val="none"/>
               </font>
               <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="64"/>
-                  <bgColor indexed="64"/>
-                </patternFill>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D467 D466</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="3" id="{008D0057-0014-4665-A178-0000009E007D}">
+          <x14:cfRule type="duplicateValues" priority="3" id="{003A0010-008C-4740-BB51-004200D3003D}">
             <x14:dxf>
               <font>
                 <b val="0"/>
@@ -4968,17 +4959,14 @@
                 <scheme val="none"/>
               </font>
               <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="64"/>
-                  <bgColor indexed="64"/>
-                </patternFill>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D460:D465 D468:D491</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="duplicateValues" priority="2" id="{00D80084-0034-46E6-9CD8-0016003E001E}">
+          <x14:cfRule type="duplicateValues" priority="2" id="{005F00D8-009F-4C0F-9DB7-002E007100C7}">
             <x14:dxf>
               <font>
                 <b val="0"/>
@@ -4989,10 +4977,7 @@
                 <scheme val="none"/>
               </font>
               <fill>
-                <patternFill patternType="solid">
-                  <fgColor indexed="64"/>
-                  <bgColor indexed="64"/>
-                </patternFill>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
